--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aziza.kurbanova\Desktop\gitfolder\Aziza\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B7A4A5-6385-431B-80DE-A37550A98130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2EBA84-2E5A-4AA1-B373-26748C3B26F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,62 +345,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="D1" sqref="D1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
